--- a/MSXII_PreChargeController/Project Outputs for PreCharge/PreCharge_4.0.xlsx
+++ b/MSXII_PreChargeController/Project Outputs for PreCharge/PreCharge_4.0.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3739FCA7-2D79-435D-98B6-5983CDD2002E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taiping\Documents\Midnight Sun\hardware\MSXII_PreChargeController\Project Outputs for PreCharge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4265A6E-C0E4-44C9-911D-563B8B903FF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="75" windowWidth="15165" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="318">
   <si>
     <t>Title</t>
   </si>
@@ -98,22 +103,13 @@
     <t>PreCharge.PrjPcb</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>Taiping Li</t>
   </si>
   <si>
-    <t>2019-01-18 6:55:55 PM</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>&lt;none&gt;</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>CAD</t>
   </si>
   <si>
     <t>LibRef</t>
@@ -245,7 +241,13 @@
     <t>RES 330 OHM 100W 5% TO-247</t>
   </si>
   <si>
-    <t>RES SMD 470K OHM 0.1% 1/4W 1206, RES SMD 29.4K OHM 1% 1/4W 1206, RES SMD 33K OHM 0.1% 1/4W 1206</t>
+    <t>RES SMD 470K OHM 0.1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>RES SMD 29.4K OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>RES SMD 33K OHM 0.1% 1/4W 1206</t>
   </si>
   <si>
     <t>RES 40.2 OHM 0.5% 1/10W 0603</t>
@@ -374,7 +376,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M2, M3</t>
   </si>
   <si>
     <t>M!1</t>
@@ -428,7 +430,13 @@
     <t>R10, R14</t>
   </si>
   <si>
-    <t>R11, R12, R13, R15, R17, R18</t>
+    <t>R11, R12, R15</t>
+  </si>
+  <si>
+    <t>R13, R17</t>
+  </si>
+  <si>
+    <t>R18</t>
   </si>
   <si>
     <t>R19</t>
@@ -482,40 +490,493 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>#Column Name Error:Manufacturer 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Unit Price 1</t>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Kyocera AVX</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Vishay Lite-On</t>
+  </si>
+  <si>
+    <t>Wakefield</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>IXYS</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Yageo Phycomp</t>
+  </si>
+  <si>
+    <t>Ohmite</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Broadcom Avago</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>XP Power</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>06035C-104KAT2A</t>
+  </si>
+  <si>
+    <t>UMK107AB7105KA-T</t>
+  </si>
+  <si>
+    <t>GRM188R61E475KE11D</t>
+  </si>
+  <si>
+    <t>CL10C250JB8NNNC</t>
+  </si>
+  <si>
+    <t>C0603C103J5JACTU</t>
+  </si>
+  <si>
+    <t>CL10B682KB8SFNC</t>
+  </si>
+  <si>
+    <t>GRM188R61E225KA12D</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73L</t>
+  </si>
+  <si>
+    <t>EEE1VA101XP</t>
+  </si>
+  <si>
+    <t>CL10C681JB8NNNC</t>
+  </si>
+  <si>
+    <t>GRT21BR61H475ME13L</t>
+  </si>
+  <si>
+    <t>GRM31CR72A225MA73L</t>
+  </si>
+  <si>
+    <t>SMBJ15CA</t>
+  </si>
+  <si>
+    <t>PESD1CAN,215</t>
+  </si>
+  <si>
+    <t>SMBJ5353B-TP</t>
+  </si>
+  <si>
+    <t>S8KC-13</t>
+  </si>
+  <si>
+    <t>B360A-13-F</t>
+  </si>
+  <si>
+    <t>TPSMB180CA</t>
+  </si>
+  <si>
+    <t>BK/PCC-3-R</t>
+  </si>
+  <si>
+    <t>NLFV32T-6R8M-EF</t>
+  </si>
+  <si>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>LTST-C193TBKT-5A</t>
+  </si>
+  <si>
+    <t>150060YS75000</t>
+  </si>
+  <si>
+    <t>OMNI-UNI-30-50-D</t>
+  </si>
+  <si>
+    <t>BK/PCS</t>
+  </si>
+  <si>
+    <t>OMNI-UNI-30-25-D</t>
+  </si>
+  <si>
+    <t>10132797-055100LF</t>
+  </si>
+  <si>
+    <t>560020-0420</t>
+  </si>
+  <si>
+    <t>IXTA10P50P</t>
+  </si>
+  <si>
+    <t>IXTH6N50D2</t>
+  </si>
+  <si>
+    <t>IXTA8N65X2</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7</t>
+  </si>
+  <si>
+    <t>IRLHS6342TRPBF</t>
+  </si>
+  <si>
+    <t>STT4P3LLH6</t>
+  </si>
+  <si>
+    <t>ZXMP6A17GQTA</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>ERJ-P08J201V</t>
+  </si>
+  <si>
+    <t>AP10118RJ</t>
+  </si>
+  <si>
+    <t>AP101330RJ</t>
+  </si>
+  <si>
+    <t>RG3216P-4703-B-T1</t>
+  </si>
+  <si>
+    <t>ERJ-8ENF2942V</t>
+  </si>
+  <si>
+    <t>RT1206BRD0733KL</t>
+  </si>
+  <si>
+    <t>RT0603DRE0740R2L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0722R1L</t>
+  </si>
+  <si>
+    <t>CRCW12060000Z0EA</t>
+  </si>
+  <si>
+    <t>ERA8AEB202V</t>
+  </si>
+  <si>
+    <t>RC0603FR-071ML</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t>MCP2515T-I/ST</t>
+  </si>
+  <si>
+    <t>TCAN332DR</t>
+  </si>
+  <si>
+    <t>NCP45521IMNTWG-H</t>
+  </si>
+  <si>
+    <t>TC7662BEOA713</t>
+  </si>
+  <si>
+    <t>HCPL-0211-000E</t>
+  </si>
+  <si>
+    <t>CD4043BDR</t>
+  </si>
+  <si>
+    <t>TLV1701QDBVRQ1</t>
+  </si>
+  <si>
+    <t>BU4S81G2-TR</t>
+  </si>
+  <si>
+    <t>ISE1212A</t>
+  </si>
+  <si>
+    <t>ABM3-16.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>478-5052-1-ND</t>
+  </si>
+  <si>
+    <t>587-3247-1-ND</t>
+  </si>
+  <si>
+    <t>490-7203-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2244-1-ND</t>
+  </si>
+  <si>
+    <t>399-13384-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2103-1-ND</t>
+  </si>
+  <si>
+    <t>490-10731-1-ND</t>
+  </si>
+  <si>
+    <t>490-5523-1-ND</t>
+  </si>
+  <si>
+    <t>PCE3951CT-ND</t>
+  </si>
+  <si>
+    <t>1276-1820-1-ND</t>
+  </si>
+  <si>
+    <t>490-12395-1-ND</t>
+  </si>
+  <si>
+    <t>490-12773-1-ND</t>
+  </si>
+  <si>
+    <t>SMBJ15CAFSCT-ND</t>
+  </si>
+  <si>
+    <t>1727-3817-1-ND</t>
+  </si>
+  <si>
+    <t>SMBJ5353B-TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>S8KCDICT-ND</t>
+  </si>
+  <si>
+    <t>B360A-FDICT-ND</t>
+  </si>
+  <si>
+    <t>F10356CT-ND</t>
+  </si>
+  <si>
+    <t>283-2768-ND</t>
+  </si>
+  <si>
+    <t>445-15776-1-ND</t>
+  </si>
+  <si>
+    <t>732-4980-1-ND</t>
+  </si>
+  <si>
+    <t>160-1827-1-ND</t>
+  </si>
+  <si>
+    <t>732-4981-1-ND</t>
+  </si>
+  <si>
+    <t>345-1574-ND</t>
+  </si>
+  <si>
+    <t>283-2356-ND</t>
+  </si>
+  <si>
+    <t>345-1573-ND</t>
+  </si>
+  <si>
+    <t>WM11673-ND</t>
+  </si>
+  <si>
+    <t>609-5226-1-ND</t>
+  </si>
+  <si>
+    <t>WM10864CT-ND</t>
+  </si>
+  <si>
+    <t>WM11702-ND</t>
+  </si>
+  <si>
+    <t>WM11703-ND</t>
+  </si>
+  <si>
+    <t>IXTA10P50P-ND</t>
+  </si>
+  <si>
+    <t>IXTH6N50D2-ND</t>
+  </si>
+  <si>
+    <t>IXTA8N65X2-ND</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7DICT-ND</t>
+  </si>
+  <si>
+    <t>IRLHS6342TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>497-15521-1-ND</t>
+  </si>
+  <si>
+    <t>ZXMP6A17GQTADIDKR-ND</t>
+  </si>
+  <si>
+    <t>311-10.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>P200ALCT-ND</t>
+  </si>
+  <si>
+    <t>AP101 18R J-ND</t>
+  </si>
+  <si>
+    <t>AP101 330R J-ND</t>
+  </si>
+  <si>
+    <t>RG32P470KBDKR-ND</t>
+  </si>
+  <si>
+    <t>P29.4KFCT-ND</t>
+  </si>
+  <si>
+    <t>YAG2038CT-ND</t>
+  </si>
+  <si>
+    <t>311-2576-1-ND</t>
+  </si>
+  <si>
+    <t>311-22.1HRCT-ND</t>
+  </si>
+  <si>
+    <t>541-0.0ECT-ND</t>
+  </si>
+  <si>
+    <t>P2.0KBCCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.00MHRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.0KGRCT-ND</t>
+  </si>
+  <si>
+    <t>MCP2515T-I/STCT-ND</t>
+  </si>
+  <si>
+    <t>296-43711-1-ND</t>
+  </si>
+  <si>
+    <t>NCP45521IMNTWG-HOSDKR-ND</t>
+  </si>
+  <si>
+    <t>TC7662BEOA713CT-ND</t>
+  </si>
+  <si>
+    <t>516-1625-5-ND</t>
+  </si>
+  <si>
+    <t>296-31496-1-ND</t>
+  </si>
+  <si>
+    <t>296-47458-1-ND</t>
+  </si>
+  <si>
+    <t>BU4S81G2CT-ND</t>
+  </si>
+  <si>
+    <t>1470-2950-1-ND</t>
+  </si>
+  <si>
+    <t>535-10638-1-ND</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>#Column Name Error:Supplier Subtotal 1</t>
-  </si>
-  <si>
-    <t>C:\Users\Taiping\Documents\MidnightSun\hardware\MSXII_PreChargeController\PreCharge.PrjPcb</t>
+    <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>C:\Users\Taiping\Documents\Midnight Sun\hardware\MSXII_PreChargeController\PreCharge.PrjPcb</t>
   </si>
   <si>
     <t>01 - Standard</t>
   </si>
   <si>
-    <t>6:55:55 PM</t>
-  </si>
-  <si>
-    <t>2019-01-18</t>
-  </si>
-  <si>
-    <t>Copy of Bill of Materials</t>
+    <t>Bill of Materials for Variant [01 - Standard] of Project [PreCharge.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -622,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,13 +1146,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,25 +1179,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,56 +1564,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J74"/>
+  <dimension ref="A2:J76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
     <col min="6" max="6" width="21" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16" style="6" customWidth="1"/>
     <col min="9" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="6"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1154,12 +1621,12 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>26</v>
+      <c r="B6" s="32">
+        <v>43488.959722222222</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1167,939 +1634,1531 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25">
+        <v>112</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="B11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="C12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.15884000000000001</v>
+      </c>
       <c r="H12" s="3">
         <v>11</v>
       </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
+      <c r="I12" s="10">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.38707999999999998</v>
+      </c>
       <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="I13" s="10">
+        <v>0.77415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.49386000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.49386000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.13347000000000001</v>
+      </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="3"/>
+      <c r="I15" s="10">
+        <v>0.26695000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.49386000000000002</v>
+      </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="I16" s="10">
+        <v>0.98770999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.13347000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.22691</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.22691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.57394000000000001</v>
+      </c>
       <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+      <c r="I19" s="10">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.62733000000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.62733000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.21356</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.21356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.66737000000000002</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.66737000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="31" t="s">
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="31" t="s">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.97436999999999996</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.97436999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.65403</v>
+      </c>
       <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="3"/>
+      <c r="I25" s="10">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.90763000000000005</v>
+      </c>
       <c r="H26" s="3">
         <v>4</v>
       </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="31" t="s">
+      <c r="I26" s="10">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.90763000000000005</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.90763000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="31" t="s">
+      <c r="C28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.54725000000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.54725000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="H29" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="3"/>
+      <c r="I29" s="10">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.22</v>
+      </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="31" t="s">
+      <c r="I30" s="10">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.58728999999999998</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.58728999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="C32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.18686</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.18686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="3"/>
+      <c r="C33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.62733000000000005</v>
+      </c>
       <c r="H33" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
+      <c r="I33" s="10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.18686</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.18686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="10">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
+      <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1722861302</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="31" t="s">
+      <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="3"/>
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="H40" s="3">
         <v>2</v>
       </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="31" t="s">
+      <c r="I40" s="10">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1722871103</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="31" t="s">
+      <c r="C42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1722871104</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6.91</v>
+      </c>
       <c r="H43" s="3">
         <v>2</v>
       </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="31" t="s">
+      <c r="I43" s="10">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="31" t="s">
+      <c r="C45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="9"/>
+      <c r="C46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
         <v>3</v>
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.89427999999999996</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.89427999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.86758999999999997</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.86758999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="31" t="s">
+      <c r="B50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3.2030000000000003E-2</v>
+      </c>
       <c r="H50" s="3">
         <v>15</v>
       </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="31" t="s">
+      <c r="I50" s="10">
+        <v>0.48050999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.22691</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.22691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="9"/>
+      <c r="C52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
         <v>4</v>
       </c>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="9"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>290</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
         <v>2</v>
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="31" t="s">
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.88092999999999999</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.14682000000000001</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.29364000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.82754000000000005</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.82754000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
-        <v>6</v>
-      </c>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
+      <c r="B57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.16017000000000001</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.16017000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="31" t="s">
+      <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.26695000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="B59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.13347000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.88092999999999999</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.88092999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.13347000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="H62" s="3">
         <v>2</v>
       </c>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="31" t="s">
+      <c r="I62" s="10">
+        <v>0.26695000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3">
-        <v>2</v>
-      </c>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="31" t="s">
+      <c r="B63" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>143</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
@@ -2111,181 +3170,331 @@
       </c>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="31" t="s">
+    <row r="64" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="10">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="31" t="s">
+      <c r="B67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="10">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="31" t="s">
+      <c r="B68" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="9"/>
+      <c r="C68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
+    <row r="69" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.64068000000000003</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.64068000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="10">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="10">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="31" t="s">
+      <c r="B72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5.67</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="10">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.92098000000000002</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.92098000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="14">
-        <f>SUM(I12:I71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="17"/>
+      <c r="I74" s="14">
+        <f>SUM(I12:I73)</f>
+        <v>102.89564000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2309,122 +3518,122 @@
       <selection activeCell="B17" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.265625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="108.59765625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" style="19" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="34">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="35">
+        <v>43488.959722222222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
     </row>
